--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -540,40 +540,40 @@
         <v>6.920255</v>
       </c>
       <c r="I2">
-        <v>0.8617934705859058</v>
+        <v>0.8222690533928816</v>
       </c>
       <c r="J2">
-        <v>0.8617934705859057</v>
+        <v>0.8222690533928814</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N2">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O2">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P2">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q2">
-        <v>0.7825370529794445</v>
+        <v>0.07513935987277777</v>
       </c>
       <c r="R2">
-        <v>7.042833476815001</v>
+        <v>0.676254238855</v>
       </c>
       <c r="S2">
-        <v>0.01202102316805908</v>
+        <v>0.001009576643557435</v>
       </c>
       <c r="T2">
-        <v>0.01202102316805907</v>
+        <v>0.001009576643557435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>6.920255</v>
       </c>
       <c r="I3">
-        <v>0.8617934705859058</v>
+        <v>0.8222690533928816</v>
       </c>
       <c r="J3">
-        <v>0.8617934705859057</v>
+        <v>0.8222690533928814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>60.985497</v>
       </c>
       <c r="O3">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P3">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q3">
         <v>46.89279894908166</v>
@@ -632,10 +632,10 @@
         <v>422.0351905417349</v>
       </c>
       <c r="S3">
-        <v>0.7203485386868372</v>
+        <v>0.630054270493978</v>
       </c>
       <c r="T3">
-        <v>0.7203485386868371</v>
+        <v>0.6300542704939779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>6.920255</v>
       </c>
       <c r="I4">
-        <v>0.8617934705859058</v>
+        <v>0.8222690533928816</v>
       </c>
       <c r="J4">
-        <v>0.8617934705859057</v>
+        <v>0.8222690533928814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N4">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O4">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P4">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q4">
-        <v>8.425156719816666</v>
+        <v>14.23075394429111</v>
       </c>
       <c r="R4">
-        <v>75.82641047835</v>
+        <v>128.07678549862</v>
       </c>
       <c r="S4">
-        <v>0.1294239087310095</v>
+        <v>0.1912052062553461</v>
       </c>
       <c r="T4">
-        <v>0.1294239087310095</v>
+        <v>0.1912052062553461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3699356666666667</v>
+        <v>0.4985973333333333</v>
       </c>
       <c r="H5">
-        <v>1.109807</v>
+        <v>1.495792</v>
       </c>
       <c r="I5">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071186</v>
       </c>
       <c r="J5">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071185</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N5">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O5">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P5">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q5">
-        <v>0.1254961123767778</v>
+        <v>0.01624114333688889</v>
       </c>
       <c r="R5">
-        <v>1.129465011391</v>
+        <v>0.146170290032</v>
       </c>
       <c r="S5">
-        <v>0.001927821396621099</v>
+        <v>0.0002182169106225223</v>
       </c>
       <c r="T5">
-        <v>0.001927821396621098</v>
+        <v>0.0002182169106225223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3699356666666667</v>
+        <v>0.4985973333333333</v>
       </c>
       <c r="H6">
-        <v>1.109807</v>
+        <v>1.495792</v>
       </c>
       <c r="I6">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071186</v>
       </c>
       <c r="J6">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071185</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>60.985497</v>
       </c>
       <c r="O6">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P6">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q6">
-        <v>7.520236829897666</v>
+        <v>10.13573539206933</v>
       </c>
       <c r="R6">
-        <v>67.682131469079</v>
+        <v>91.22161852862399</v>
       </c>
       <c r="S6">
-        <v>0.1155228890661432</v>
+        <v>0.1361843078572579</v>
       </c>
       <c r="T6">
-        <v>0.1155228890661432</v>
+        <v>0.1361843078572579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3699356666666667</v>
+        <v>0.4985973333333333</v>
       </c>
       <c r="H7">
-        <v>1.109807</v>
+        <v>1.495792</v>
       </c>
       <c r="I7">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071186</v>
       </c>
       <c r="J7">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071185</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N7">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O7">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P7">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q7">
-        <v>1.351149329576667</v>
+        <v>3.075934037667555</v>
       </c>
       <c r="R7">
-        <v>12.16034396619</v>
+        <v>27.683406339008</v>
       </c>
       <c r="S7">
-        <v>0.0207558189513299</v>
+        <v>0.04132842183923811</v>
       </c>
       <c r="T7">
-        <v>0.02075581895132989</v>
+        <v>0.04132842183923809</v>
       </c>
     </row>
   </sheetData>
